--- a/data/financial_statements/soci/FRC.xlsx
+++ b/data/financial_statements/soci/FRC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1336 +581,1366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1962000000</v>
+      </c>
+      <c r="C2">
         <v>1772000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1579000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1440000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1414000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1369000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1304000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1218000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1179883000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1132959000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1074993000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1120165000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1093600000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1051983000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1031082000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>979335000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>972201800</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>914413000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>866860000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>821576000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>793097800</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>756500000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>708527000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>653954000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>646428100</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>601585000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>572869000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>554803000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>531357000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>505775000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>492191000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>459822000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>454833000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>481067000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>447141000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>418323000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>409677900</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>399682000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>394994000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>396014000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3876</v>
+      </c>
+      <c r="C3">
         <v>0.2944</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2109</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1823</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1984</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2083</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.213</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0873</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0789</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.077</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.0426</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1438</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1249</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1504</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1894</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.192</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2258</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.2087</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.2235</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.2563</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.2269</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.2575</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.2368</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1787</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.2166</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1894</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1639</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.2066</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.1682</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0514</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.1008</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0992</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1102</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.2036</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.132</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0563</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0663</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.07679999999999999</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.101</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1586</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>525000000</v>
+      </c>
+      <c r="C4">
         <v>249000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>70000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>44000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>47000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>66000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>75000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>83000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>99303000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>131696000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>156012000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>203989000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>216524000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>214791000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>211706000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>171979000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>161452000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>145584000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>122746000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>100716000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>93940000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>86214000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>67191000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>52810000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>46969000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>43710000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>37794000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>35238000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>36507000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>37147000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>36891000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>36884000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>38144000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>40407000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>37090000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>36608000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>38654000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>37840000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>29652000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>25697000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1437000000</v>
+      </c>
+      <c r="C5">
         <v>1523000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1509000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1396000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1367000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1303000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1229000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1135000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1080580000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1001263000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>918981100</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>916176000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>877076100</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>837192000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>819376000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>807356000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>810749900</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>768829000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>744114000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>720860000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>699157800</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>670286000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>641336100</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>601144000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>599459100</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>557875000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>535075000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>519565000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>494850000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>468628000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>455300000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>422938000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>416689000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>440660000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>410051000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>381715000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>371023900</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>361842000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>365342000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>370317000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>949000000</v>
+      </c>
+      <c r="C6">
         <v>955000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>944000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>876000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>890000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>832000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>778000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>706000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>712565000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>636748000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>589300000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>644387000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>568273000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>550661000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>550054000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>539012000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>523671100</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>502632000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>491927000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>474581000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>462585000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>428472000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>421038000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>387627000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>389837000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>349620000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>327896000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>317025000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>306036000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>285668000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>275179000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>262405000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>252858000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>246312000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>238736000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>218582000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>202526000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>195268000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>194869000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>186156000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>488000000</v>
+      </c>
+      <c r="C7">
         <v>568000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>565000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>520000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>477000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>471000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>451000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>429000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>368014800</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>364515000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>318406000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>271789100</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>308803100</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>286531000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>269322000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>268344100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>287078700</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>266197100</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>252187100</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>246279000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>236572800</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>241814000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>220298000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>213517000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>209622100</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>202139000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>200793000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>195879000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>181881000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>178229000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>175180000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>155378000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>158463000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>188768000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>165523000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>157129000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>162279900</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>160144000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>163830000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>177305000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>488000000</v>
+      </c>
+      <c r="C9">
         <v>568000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>565000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>520000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>477000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>471000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>451000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>429000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>379290000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>364515000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>318406000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>271789000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>308803000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>286531000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>269322000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>268344000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>287078900</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>266197000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>252187000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>246279000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>236573100</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>241814000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>220298000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>213517000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>228785000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>202139000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>200793000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>195879000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>181881000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>178229000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>175180000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>155378000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>158463000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>188768000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>165523000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>157129000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>162280000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>160144000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>163830000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>177305000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>102000000</v>
+      </c>
+      <c r="C10">
         <v>123000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>132000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>119000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>77000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>101000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>78000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>94000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>83881000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>71378000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>61638000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>53103000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>62802000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>51687000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>46758000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>41753000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>55661000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>52651000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>42406000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>47196000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>42296000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>41805000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>33698000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>36743000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>49667000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>30321000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>35796000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>38384000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>41835000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>43387000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>43835000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>39466000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>43004000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>52757000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>44691000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>42425000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>46981000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>48396000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>51360000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>54752000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>386000000</v>
+      </c>
+      <c r="C11">
         <v>445000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>433000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>401000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>400000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>370000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>373000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>335000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>295409000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>293137000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>256768000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>218686000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>246001000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>234844000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>222564000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>226591000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>231418000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>213546000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>209781000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>199083000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>194277000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>200009000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>186600000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>176774000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>179118000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>171818000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>164997000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>157495000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>140046000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>134842000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>131345000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>115912000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>115459000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>136011000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>120832000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>114704000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>115299000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>111748000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>112470000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>122553000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>40000000</v>
       </c>
       <c r="C12">
+        <v>40000000</v>
+      </c>
+      <c r="D12">
         <v>41000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>37000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>32000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>25000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>23000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>19000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>16347000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>14816000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14817000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13020000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>10638000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12787000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12788000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12787000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16228000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>17112000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>12163000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>12222000</v>
-      </c>
-      <c r="U12">
-        <v>14272000</v>
       </c>
       <c r="V12">
         <v>14272000</v>
       </c>
       <c r="W12">
+        <v>14272000</v>
+      </c>
+      <c r="X12">
         <v>14344000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15152000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>17376000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>17377000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>17376000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>16460000</v>
-      </c>
-      <c r="AC12">
-        <v>15314000</v>
       </c>
       <c r="AD12">
         <v>15314000</v>
       </c>
       <c r="AE12">
+        <v>15314000</v>
+      </c>
+      <c r="AF12">
         <v>14411000</v>
-      </c>
-      <c r="AF12">
-        <v>13889000</v>
       </c>
       <c r="AG12">
         <v>13889000</v>
@@ -1811,753 +1955,771 @@
         <v>13889000</v>
       </c>
       <c r="AK12">
+        <v>13889000</v>
+      </c>
+      <c r="AL12">
         <v>12800000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>10389000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>9706000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>7776000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>346000000</v>
+      </c>
+      <c r="C13">
         <v>405000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>392000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>364000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>368000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>345000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>350000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>316000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>279062000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>278321000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>241951000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>205666000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>235363000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>222057000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>209776000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>213804000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>215190000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>196434000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>197618000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>186861000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>180005000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>185737000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>172256000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>161622000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>161742000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>154441000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>147621000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>141035000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>124732000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>119528000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>116934000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>102023000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>101570000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>122122000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>106943000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>100815000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>102499000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>101359000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>102764000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>114777000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1.88</v>
+      </c>
+      <c r="C14">
         <v>2.23</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2.18</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.03</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.05</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.94</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.98</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.81</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.61</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.62</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.41</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.4</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.32</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.25</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.28</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.31</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.22</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.16</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.12</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.18</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.1</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.04</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.06</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.03</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.91</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.87</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.84</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.82</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>0.73</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.74</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>0.89</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.78</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.76</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>0.78</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.77</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>0.79</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0.88</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>2.21</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.16</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.02</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.91</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.95</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.79</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.6</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.61</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.4</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.39</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.31</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.24</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.26</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.29</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.19</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.2</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.13</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.1</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.14</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.06</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.01</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.03</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.97</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.88</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.84</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.82</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.8</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.71</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.72</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.86</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.76</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.73</v>
-      </c>
-      <c r="AK15">
-        <v>0.75</v>
       </c>
       <c r="AL15">
         <v>0.75</v>
       </c>
       <c r="AM15">
+        <v>0.75</v>
+      </c>
+      <c r="AN15">
         <v>0.77</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>183000000</v>
+      </c>
+      <c r="C16">
         <v>182000000</v>
-      </c>
-      <c r="C16">
-        <v>180000000</v>
       </c>
       <c r="D16">
         <v>180000000</v>
       </c>
       <c r="E16">
+        <v>180000000</v>
+      </c>
+      <c r="F16">
         <v>177000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>178000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>176000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>175000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>172000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>172142000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>171627000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>170835000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>168000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>168272000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>167685000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>167112000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>162948000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>163048000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>162152000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>161752000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>157624000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>157752000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>157302000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>155012000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>148752000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>149800000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>147208000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>145963000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>141689000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>142152000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>141927000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>138839000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>136420000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>137661000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>137279000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>132880000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>131326000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>131436000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>131102000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>130846000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>184000000</v>
+      </c>
+      <c r="C17">
         <v>183000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>181000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>182000000</v>
-      </c>
-      <c r="E17">
-        <v>180000000</v>
       </c>
       <c r="F17">
         <v>180000000</v>
       </c>
       <c r="G17">
+        <v>180000000</v>
+      </c>
+      <c r="H17">
         <v>179000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>177000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>173000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>172932000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>172659000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>172039000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>170000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>169346000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>169572000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>169410000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>165612000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>165498000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>165013000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>164839000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>162340000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>162377000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>162335000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>160433000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>154095000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>154824000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>152602000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>151701000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>145510000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>145890000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>145713000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>142791000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>140497000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>141548000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>141473000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>137295000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>135949000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>136133000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>135595000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>135252000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0.7324000000000001</v>
+      </c>
+      <c r="C18">
         <v>0.8595</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.9557</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9694</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.9668</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.9518</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.9425</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.9319</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9157999999999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.8838</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.8549</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8179</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.802</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.7958</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.7947</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.8244</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.8339</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8408</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8584000000000001</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8774</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8816000000000001</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.886</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.9052</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.9192</v>
-      </c>
-      <c r="Y18">
-        <v>0.9273</v>
       </c>
       <c r="Z18">
         <v>0.9273</v>
       </c>
       <c r="AA18">
+        <v>0.9273</v>
+      </c>
+      <c r="AB18">
         <v>0.9340000000000001</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.9365</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.9313</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.9266</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.925</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.9198</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.9161</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.916</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.9171</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.9125</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.9056</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.9053</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.9249000000000001</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.9351</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2676,1108 +2838,1135 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2487</v>
+      </c>
+      <c r="C20">
         <v>0.3205</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3578</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3611</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3373</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.344</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3459</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3522</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3215</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.3217</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2962</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.2426</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2824</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2724</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2612</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.274</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2953</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.2911</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.2909</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2998</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2983</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3196</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3109</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.3265</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.3539</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.336</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.3505</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.3531</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.3423</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.3524</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.3559</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3379</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.3484</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.3924</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3702</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.3756</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3961</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.4007</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.4148</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.4477</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1764</v>
+      </c>
+      <c r="C21">
         <v>0.2286</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2483</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2528</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2603</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.252</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2684</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2594</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2365</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2457</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2251</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1836</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2152</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2111</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2035</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2183</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2213</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2148</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.228</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2274</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.227</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2455</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2431</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2471</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2502</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2567</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2577</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2542</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2347</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2363</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2376</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2219</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2233</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2539</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2392</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.241</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2502</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2536</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2602</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2898</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>386000000</v>
+      </c>
+      <c r="C22">
         <v>445000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>433000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>401000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>400000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>370000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>373000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>335000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>295409000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>293137000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>256768000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>218686000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>246001000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>234844000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>222564000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>226591000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>231418000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>213546000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>209781000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>199083000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>194277000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>200009000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>186600000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>176774000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>179118000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>171818000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>164997000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>157495000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>140046000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>134842000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>131345000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>115912000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>115459000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>136011000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>120832000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>114704000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>115299000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>111748000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>112470000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>122553000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>386000000</v>
+      </c>
+      <c r="C23">
         <v>445000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>433000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>401000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>400000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>370000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>373000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>335000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>295409000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>293137000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>256768000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>218686000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>246001000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>234844000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>222564000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>226591000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>231418000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>213546000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>209781000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>199083000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>194277000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>200009000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>186600000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>176774000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>179118000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>171818000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>164997000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>157495000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>140046000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>134842000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>131345000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>115912000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>115459000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>136011000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>120832000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>114704000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>115299000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>111748000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>112470000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>122553000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>2.1093</v>
+      </c>
+      <c r="C24">
         <v>2.4451</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2.4056</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.2278</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.238</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.0787</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.1193</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.9143</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.707</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.7029</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.4961</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.2801</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.4569</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1.3956</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.3273</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.3559</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1.4056</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1.3097</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.2937</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.2308</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.2122</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1.2679</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1.1863</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1.1404</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1.1804</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.147</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.1208</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.079</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.9762999999999999</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.9486</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.9254</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.8349</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.8385</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.988</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.8802</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.8632</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.8738</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.8502</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.8579</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.9366</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>2.0978</v>
+      </c>
+      <c r="C25">
         <v>2.4317</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2.3923</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.2033</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.1791</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2.0556</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.0838</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.8927</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.6969</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.6951</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.4871</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.2711</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.4338</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.3868</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.3125</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.3375</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1.3862</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.2903</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.2713</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.2077</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.184</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.2318</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.1495</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1.1019</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.141</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.1098</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.0812</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.0382</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.951</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.9243</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.9014</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.8118</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.8159</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.9609</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.8541</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.8355</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.8424</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.8209</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.8295</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.9061</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2.1093</v>
+      </c>
+      <c r="C26">
         <v>2.4451</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.4056</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.2278</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.238</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.0787</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.1193</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.9143</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.707</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.7029</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.4961</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.2801</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.4569</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.3956</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.3273</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.3559</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.4056</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.3097</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.2937</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.2308</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.2122</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.2679</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.1863</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.1404</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.1804</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.147</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.1208</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.079</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.9762999999999999</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.9486</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.9254</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.8349</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.8385</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.988</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.8802</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.8632</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.8738</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.8502</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.8579</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.9366</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2.0978</v>
+      </c>
+      <c r="C27">
         <v>2.4317</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.3923</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.2033</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.1791</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.0556</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.0838</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.8927</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.6969</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.6951</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.4871</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.2711</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.4338</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.3868</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.3125</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.3375</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.3862</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.2903</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.2713</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.2077</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.184</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.2318</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.1495</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.1019</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.141</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.1098</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.0812</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.0382</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.951</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.9243</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.9014</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.8118</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.8159</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.9609</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.8541</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.8355</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.8424</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.8209</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.8295</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.9061</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>183000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>181000000</v>
-      </c>
-      <c r="D28">
-        <v>182000000</v>
       </c>
       <c r="E28">
         <v>182000000</v>
       </c>
       <c r="F28">
+        <v>182000000</v>
+      </c>
+      <c r="G28">
         <v>180420000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>178864000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>176951000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>174708000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>172932000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>172659000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>172039000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>169776000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>169346000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>169572000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>169410000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>167100000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>165498000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>165013000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>164839000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>164197000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>162377000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>162335000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>160433000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>157217000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>154824000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>152602000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>149719000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>147814000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>145890000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>145713000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>142791000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>141753000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>141548000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>141473000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>137295000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>136522000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>136133000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>135595000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>135252000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3896,126 +4085,132 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>0.06320000000000001</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.06710000000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.0069</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.6938</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.3937</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.1166</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.3842</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0953</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.06560000000000001</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.1047</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.2067</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-0.7893</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.1159</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.3763</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.2453</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-0.0358</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.8749</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.0891</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.3271</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.2767</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.3835</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.3445</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.3952</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.4749</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.5259</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.1769</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.2303</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.1773</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.474</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.4583</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.1473</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.5155</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.3255</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.241</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.0416</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.4041</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.2092</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.054</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-0.2607</v>
       </c>
     </row>
